--- a/lab1_byot/examples/example2.xlsx
+++ b/lab1_byot/examples/example2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="37020" yWindow="500" windowWidth="34560" windowHeight="20340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="37920" yWindow="720" windowWidth="34560" windowHeight="20340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" state="visible" r:id="rId1"/>
@@ -590,7 +590,7 @@
     <col width="5.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="5.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="9.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.5" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="4.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="12.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="14.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="8.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
@@ -755,42 +755,42 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>D-25</t>
+          <t>D-1</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>D-27</t>
+          <t>D-2</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>D-26</t>
+          <t>D-3</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>D-28</t>
+          <t>D-4</t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>D-29</t>
+          <t>D-5</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>D-30</t>
+          <t>D-6</t>
         </is>
       </c>
       <c r="N3" s="4" t="inlineStr">
         <is>
-          <t>D-31</t>
+          <t>D-7</t>
         </is>
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t>D-32</t>
+          <t>D-8</t>
         </is>
       </c>
       <c r="P3" s="4" t="n"/>
@@ -859,42 +859,42 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>D-33</t>
+          <t>D-9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>D-35</t>
+          <t>D-10</t>
         </is>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
-          <t>D-34</t>
+          <t>D-11</t>
         </is>
       </c>
       <c r="K5" s="7" t="inlineStr">
         <is>
-          <t>D-36</t>
+          <t>D-12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>D-37</t>
+          <t>D-13</t>
         </is>
       </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>D-38</t>
+          <t>D-14</t>
         </is>
       </c>
       <c r="N5" s="7" t="inlineStr">
         <is>
-          <t>D-39</t>
+          <t>D-15</t>
         </is>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
-          <t>D-40</t>
+          <t>D-16</t>
         </is>
       </c>
       <c r="P5" s="2" t="n"/>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -1177,22 +1177,22 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
+          <t>S-1</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>S-2</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
           <t>D-1</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>D-2</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>D-25</t>
-        </is>
-      </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>D-26</t>
+          <t>D-3</t>
         </is>
       </c>
       <c r="L3" s="4" t="n"/>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>D-3</t>
+          <t>S-3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>S-4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>D-2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>D-4</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>D-27</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>D-28</t>
         </is>
       </c>
       <c r="L5" s="2" t="n"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -1345,22 +1345,22 @@
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
+          <t>S-5</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>S-6</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
           <t>D-5</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>D-6</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>D-29</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>D-30</t>
         </is>
       </c>
       <c r="L7" s="4" t="n"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>S-7</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>S-8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>D-8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>D-7</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>D-8</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>D-32</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>D-31</t>
         </is>
       </c>
       <c r="L9" s="2" t="n"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -1513,32 +1513,32 @@
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>D-7</t>
+          <t>S-7</t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>D-1</t>
+          <t>S-1</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>D-3</t>
+          <t>S-3</t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>D-5</t>
+          <t>S-5</t>
         </is>
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
-          <t>D-17</t>
+          <t>S-17</t>
         </is>
       </c>
       <c r="M11" s="4" t="inlineStr">
         <is>
-          <t>D-18</t>
+          <t>S-18</t>
         </is>
       </c>
       <c r="N11" s="4" t="n"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>D-8</t>
+          <t>S-8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>D-2</t>
+          <t>S-2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>D-4</t>
+          <t>S-4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>D-6</t>
+          <t>S-6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>D-19</t>
+          <t>S-19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>D-20</t>
+          <t>S-20</t>
         </is>
       </c>
       <c r="N13" s="2" t="n"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1697,22 +1697,22 @@
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
+          <t>S-9</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>S-10</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
           <t>D-9</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>D-10</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>D-33</t>
-        </is>
-      </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>D-34</t>
+          <t>D-11</t>
         </is>
       </c>
       <c r="L15" s="4" t="n"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1781,22 +1781,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>D-11</t>
+          <t>S-11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>S-12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>D-10</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>D-12</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>D-35</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>D-36</t>
         </is>
       </c>
       <c r="L17" s="2" t="n"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1865,22 +1865,22 @@
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
+          <t>S-13</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>S-14</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
           <t>D-13</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>D-14</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>D-37</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
-        <is>
-          <t>D-38</t>
         </is>
       </c>
       <c r="L19" s="4" t="n"/>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -1949,22 +1949,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
+          <t>S-15</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>S-16</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>D-16</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>D-15</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>D-16</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>D-40</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>D-39</t>
         </is>
       </c>
       <c r="L21" s="2" t="n"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -2033,32 +2033,32 @@
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>D-15</t>
+          <t>S-15</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>D-9</t>
+          <t>S-9</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>D-11</t>
+          <t>S-11</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>D-13</t>
+          <t>S-13</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>D-21</t>
+          <t>S-21</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>D-22</t>
+          <t>S-22</t>
         </is>
       </c>
       <c r="N23" s="4" t="n"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
@@ -2125,32 +2125,32 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>D-16</t>
+          <t>S-16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>D-10</t>
+          <t>S-10</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>D-12</t>
+          <t>S-12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>D-14</t>
+          <t>S-14</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>D-23</t>
+          <t>S-23</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>D-24</t>
+          <t>S-24</t>
         </is>
       </c>
       <c r="N25" s="2" t="n"/>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -2217,22 +2217,22 @@
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>D-17</t>
+          <t>S-17</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>D-19</t>
+          <t>S-19</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>D-21</t>
+          <t>S-21</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>D-23</t>
+          <t>S-23</t>
         </is>
       </c>
       <c r="L27" s="4" t="n"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>core</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>D-18</t>
+          <t>S-18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>D-20</t>
+          <t>S-20</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>D-22</t>
+          <t>S-22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>D-24</t>
+          <t>S-24</t>
         </is>
       </c>
       <c r="L29" s="2" t="n"/>
@@ -2356,7 +2356,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3212,7 +3212,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3367,7 +3367,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/lab1_byot/examples/example2.xlsx
+++ b/lab1_byot/examples/example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67930D58-9328-CE45-A24B-6DD8DADF4C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6A4579-10D0-EE4E-9686-EFFDC2630E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73640" yWindow="840" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73500" yWindow="800" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -101,58 +101,10 @@
     <t>virbr0</t>
   </si>
   <si>
-    <t>D-1</t>
-  </si>
-  <si>
-    <t>D-2</t>
-  </si>
-  <si>
-    <t>D-3</t>
-  </si>
-  <si>
-    <t>D-4</t>
-  </si>
-  <si>
-    <t>D-5</t>
-  </si>
-  <si>
-    <t>D-6</t>
-  </si>
-  <si>
-    <t>D-7</t>
-  </si>
-  <si>
-    <t>D-8</t>
-  </si>
-  <si>
     <t>lab1_vsrx3_vr1</t>
   </si>
   <si>
     <t>192.168.122.126</t>
-  </si>
-  <si>
-    <t>D-9</t>
-  </si>
-  <si>
-    <t>D-10</t>
-  </si>
-  <si>
-    <t>D-11</t>
-  </si>
-  <si>
-    <t>D-12</t>
-  </si>
-  <si>
-    <t>D-13</t>
-  </si>
-  <si>
-    <t>D-14</t>
-  </si>
-  <si>
-    <t>D-15</t>
-  </si>
-  <si>
-    <t>D-16</t>
   </si>
   <si>
     <t>lab3_pod1_leaf_1</t>
@@ -570,10 +522,10 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1016,28 +968,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1046,7 +998,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1081,37 +1033,37 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1221,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1245,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1317,34 +1269,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1355,7 +1307,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1379,34 +1331,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1417,7 +1369,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1441,34 +1393,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1479,7 +1431,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1503,34 +1455,34 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1541,7 +1493,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1565,40 +1517,40 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="M11" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1607,7 +1559,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1631,40 +1583,40 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1673,7 +1625,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1697,34 +1649,34 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>37</v>
+      <c r="H15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1735,7 +1687,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1759,34 +1711,34 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1797,7 +1749,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1821,34 +1773,34 @@
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1859,7 +1811,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1883,34 +1835,34 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1921,7 +1873,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1945,40 +1897,40 @@
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="M23" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1987,7 +1939,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2011,40 +1963,40 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2053,7 +2005,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2077,34 +2029,34 @@
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -2115,7 +2067,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2139,34 +2091,34 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2227,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -2245,44 +2197,44 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2326,7 +2278,7 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -2370,7 +2322,7 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2414,7 +2366,7 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2458,7 +2410,7 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2502,7 +2454,7 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2546,7 +2498,7 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2590,7 +2542,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2678,7 +2630,7 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2722,7 +2674,7 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2766,7 +2718,7 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -2810,7 +2762,7 @@
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2854,7 +2806,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2898,7 +2850,7 @@
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2942,7 +2894,7 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2995,12 +2947,12 @@
     <mergeCell ref="A4:T4"/>
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
+    <mergeCell ref="A6:T6"/>
     <mergeCell ref="A30:T30"/>
     <mergeCell ref="A20:T20"/>
     <mergeCell ref="A24:T24"/>
     <mergeCell ref="A32:T32"/>
     <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A6:T6"/>
     <mergeCell ref="A22:T22"/>
     <mergeCell ref="A12:T12"/>
   </mergeCells>
@@ -3048,7 +3000,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3061,16 +3013,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>24</v>
@@ -3169,16 +3121,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/lab1_byot/examples/example2.xlsx
+++ b/lab1_byot/examples/example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6A4579-10D0-EE4E-9686-EFFDC2630E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40422B1C-4F26-3640-8125-4C2679D5E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73500" yWindow="800" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73500" yWindow="800" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>vsrx3</t>
   </si>
   <si>
-    <t>23.1R1.8</t>
-  </si>
-  <si>
     <t>vr</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>S-40</t>
+  </si>
+  <si>
+    <t>23.2R1.13</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -953,43 +953,43 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -998,7 +998,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1027,43 +1027,43 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1173,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1269,34 +1269,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1331,34 +1331,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1393,34 +1393,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1455,34 +1455,34 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1517,40 +1517,40 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1583,40 +1583,40 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1649,34 +1649,34 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="J15" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1711,34 +1711,34 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1773,34 +1773,34 @@
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="J19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1835,34 +1835,34 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1897,40 +1897,40 @@
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1963,40 +1963,40 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2029,34 +2029,34 @@
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2091,34 +2091,34 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -2197,40 +2197,40 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -2939,6 +2939,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -2948,13 +2955,6 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3121,16 +3121,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/lab1_byot/examples/example2.xlsx
+++ b/lab1_byot/examples/example2.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40422B1C-4F26-3640-8125-4C2679D5E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8671330-9DFF-6649-A395-3E18E32C05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73500" yWindow="800" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73500" yWindow="800" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
-    <sheet name="VEX" sheetId="2" r:id="rId2"/>
-    <sheet name="VEVO" sheetId="3" r:id="rId3"/>
-    <sheet name="APSTRA" sheetId="4" r:id="rId4"/>
-    <sheet name="LINUX" sheetId="5" r:id="rId5"/>
+    <sheet name="VROUTER" sheetId="6" r:id="rId2"/>
+    <sheet name="VEX" sheetId="2" r:id="rId3"/>
+    <sheet name="VEVO" sheetId="3" r:id="rId4"/>
+    <sheet name="APSTRA" sheetId="4" r:id="rId5"/>
+    <sheet name="LINUX" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -381,6 +382,15 @@
   </si>
   <si>
     <t>23.2R1.13</t>
+  </si>
+  <si>
+    <t>ge-0/0/12</t>
+  </si>
+  <si>
+    <t>vrouter</t>
+  </si>
+  <si>
+    <t>dc</t>
   </si>
 </sst>
 </file>
@@ -847,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1170,6 +1180,1036 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A634687-D80C-B94E-9C84-E468DE752B56}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A12:Q12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
@@ -2148,7 +3188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -2939,13 +3979,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -2955,12 +3988,19 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3087,7 +4127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>

--- a/lab1_byot/examples/example2.xlsx
+++ b/lab1_byot/examples/example2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8671330-9DFF-6649-A395-3E18E32C05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240E6B5-0B9D-CF4A-BAA6-1A048EF56337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73500" yWindow="800" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38140" yWindow="1000" windowWidth="34560" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -333,64 +333,58 @@
     <t>eth2</t>
   </si>
   <si>
-    <t>S-25</t>
-  </si>
-  <si>
-    <t>S-27</t>
-  </si>
-  <si>
-    <t>S-26</t>
-  </si>
-  <si>
-    <t>S-28</t>
-  </si>
-  <si>
-    <t>S-29</t>
-  </si>
-  <si>
-    <t>S-30</t>
-  </si>
-  <si>
-    <t>S-31</t>
-  </si>
-  <si>
-    <t>S-32</t>
-  </si>
-  <si>
-    <t>S-33</t>
-  </si>
-  <si>
-    <t>S-35</t>
-  </si>
-  <si>
-    <t>S-34</t>
-  </si>
-  <si>
-    <t>S-36</t>
-  </si>
-  <si>
-    <t>S-37</t>
-  </si>
-  <si>
-    <t>S-38</t>
-  </si>
-  <si>
-    <t>S-39</t>
-  </si>
-  <si>
-    <t>S-40</t>
-  </si>
-  <si>
     <t>23.2R1.13</t>
   </si>
   <si>
     <t>ge-0/0/12</t>
   </si>
   <si>
-    <t>vrouter</t>
-  </si>
-  <si>
-    <t>dc</t>
+    <t>D-1</t>
+  </si>
+  <si>
+    <t>D-2</t>
+  </si>
+  <si>
+    <t>D-3</t>
+  </si>
+  <si>
+    <t>D-4</t>
+  </si>
+  <si>
+    <t>D-5</t>
+  </si>
+  <si>
+    <t>D-6</t>
+  </si>
+  <si>
+    <t>D-8</t>
+  </si>
+  <si>
+    <t>D-7</t>
+  </si>
+  <si>
+    <t>D-9</t>
+  </si>
+  <si>
+    <t>D-10</t>
+  </si>
+  <si>
+    <t>D-11</t>
+  </si>
+  <si>
+    <t>D-12</t>
+  </si>
+  <si>
+    <t>D-13</t>
+  </si>
+  <si>
+    <t>D-14</t>
+  </si>
+  <si>
+    <t>D-16</t>
+  </si>
+  <si>
+    <t>D-15</t>
   </si>
 </sst>
 </file>
@@ -858,7 +852,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -978,28 +972,28 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1037,7 +1031,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -1052,28 +1046,28 @@
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1183,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A634687-D80C-B94E-9C84-E468DE752B56}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1259,13 +1253,11 @@
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="A2" s="15"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1284,39 +1276,17 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1328,9 +1298,7 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1349,39 +1317,17 @@
       <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1393,9 +1339,7 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6" s="15"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1414,39 +1358,17 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1458,9 +1380,7 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1479,39 +1399,17 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1523,9 +1421,7 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="A10" s="15"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1544,45 +1440,19 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1592,9 +1462,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1613,45 +1481,19 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1661,9 +1503,7 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="15"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1682,39 +1522,17 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1726,9 +1544,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1747,39 +1563,17 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1791,9 +1585,7 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="A18" s="15"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1812,39 +1604,17 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1856,9 +1626,7 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1877,39 +1645,17 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1921,9 +1667,7 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -1942,45 +1686,19 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -1990,9 +1708,7 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -2011,45 +1727,19 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2059,9 +1749,7 @@
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2080,39 +1768,17 @@
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2124,9 +1790,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2145,39 +1809,17 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2190,6 +1832,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -2198,12 +1846,6 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2213,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2333,10 +1975,10 @@
         <v>32</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2395,10 +2037,10 @@
         <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2457,10 +2099,10 @@
         <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2519,10 +2161,10 @@
         <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2713,10 +2355,10 @@
         <v>56</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -2775,10 +2417,10 @@
         <v>60</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2837,10 +2479,10 @@
         <v>64</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -2899,10 +2541,10 @@
         <v>68</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3979,6 +3621,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3988,13 +3637,6 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lab1_byot/examples/example2.xlsx
+++ b/lab1_byot/examples/example2.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240E6B5-0B9D-CF4A-BAA6-1A048EF56337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1592EC-3378-5842-9D44-FFAF46E4BE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38140" yWindow="1000" windowWidth="34560" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65820" yWindow="500" windowWidth="29260" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
-    <sheet name="VROUTER" sheetId="6" r:id="rId2"/>
-    <sheet name="VEX" sheetId="2" r:id="rId3"/>
-    <sheet name="VEVO" sheetId="3" r:id="rId4"/>
-    <sheet name="APSTRA" sheetId="4" r:id="rId5"/>
-    <sheet name="LINUX" sheetId="5" r:id="rId6"/>
+    <sheet name="VMX" sheetId="7" r:id="rId2"/>
+    <sheet name="VROUTER" sheetId="6" r:id="rId3"/>
+    <sheet name="VEX" sheetId="2" r:id="rId4"/>
+    <sheet name="VEVO" sheetId="3" r:id="rId5"/>
+    <sheet name="APSTRA" sheetId="4" r:id="rId6"/>
+    <sheet name="LINUX" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -1174,6 +1175,671 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC09373-B381-D047-B2FF-3B4B69A83975}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A634687-D80C-B94E-9C84-E468DE752B56}">
   <dimension ref="A1:T29"/>
   <sheetViews>
@@ -1832,12 +2498,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -1846,16 +2506,22 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -2830,7 +3496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -3621,13 +4287,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3637,12 +4296,19 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3769,7 +4435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>

--- a/lab1_byot/examples/example2.xlsx
+++ b/lab1_byot/examples/example2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1592EC-3378-5842-9D44-FFAF46E4BE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED670A8D-1D42-CF42-8059-CAE0A9C1F487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65820" yWindow="500" windowWidth="29260" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65820" yWindow="500" windowWidth="29260" windowHeight="19460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -308,18 +308,6 @@
   </si>
   <si>
     <t>et-0/0/11</t>
-  </si>
-  <si>
-    <t>lab1_apstra_server</t>
-  </si>
-  <si>
-    <t>apstra_server</t>
-  </si>
-  <si>
-    <t>4.1.2-269</t>
-  </si>
-  <si>
-    <t>192.168.122.110</t>
   </si>
   <si>
     <t>bond</t>
@@ -958,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -973,28 +961,28 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1032,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -1047,28 +1035,28 @@
         <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1178,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC09373-B381-D047-B2FF-3B4B69A83975}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1822,11 +1810,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A30:Q30"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A5:Q5"/>
@@ -1834,6 +1817,11 @@
     <mergeCell ref="A11:Q11"/>
     <mergeCell ref="A14:Q14"/>
     <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1919,7 +1907,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -2498,6 +2486,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -2506,12 +2500,6 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2641,10 +2629,10 @@
         <v>32</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2703,10 +2691,10 @@
         <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2765,10 +2753,10 @@
         <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2827,10 +2815,10 @@
         <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3021,10 +3009,10 @@
         <v>56</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -3083,10 +3071,10 @@
         <v>60</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3145,10 +3133,10 @@
         <v>64</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3207,10 +3195,10 @@
         <v>68</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -4287,6 +4275,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -4296,13 +4291,6 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4312,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4347,9 +4335,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="A2" s="15"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -4357,24 +4343,12 @@
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -4469,16 +4443,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
